--- a/NformTester/NformTester/Keywordscripts/600.40.30.90_UsersandGroupsDisableUsersOwnAccount.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.90_UsersandGroupsDisableUsersOwnAccount.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1260,12 +1260,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7720" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7728" uniqueCount="861">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3872,6 +3872,10 @@
   </si>
   <si>
     <t xml:space="preserve">;clear all configurations </t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3882,7 +3886,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3890,41 +3894,41 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3932,7 +3936,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4163,68 +4167,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4245,7 +4193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4529,26 +4477,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q134"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>818</v>
       </c>
@@ -4592,7 +4540,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" s="2" t="s">
         <v>820</v>
       </c>
@@ -4678,7 +4626,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4740,7 +4688,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -5057,7 +5005,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="15">
       <c r="A17" s="25" t="s">
         <v>811</v>
       </c>
@@ -5181,7 +5129,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" ht="15">
       <c r="A21" s="25" t="s">
         <v>815</v>
       </c>
@@ -5389,7 +5337,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" ht="15">
       <c r="C29" s="3">
         <v>28</v>
       </c>
@@ -5407,75 +5355,79 @@
       <c r="M29" s="3"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" s="19" customFormat="1">
       <c r="C30" s="3">
         <v>29</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="17"/>
-    </row>
-    <row r="31" spans="1:17">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="28"/>
+    </row>
+    <row r="31" spans="1:17" s="19" customFormat="1">
       <c r="C31" s="3">
         <v>30</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="28"/>
     </row>
     <row r="32" spans="1:17">
       <c r="C32" s="3">
         <v>31</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>842</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -5486,26 +5438,24 @@
         <v>32</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="J33" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="3">
@@ -5515,86 +5465,82 @@
         <v>831</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>799</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="J34" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="29"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="3">
         <v>34</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>859</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="D35" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="J35" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="17"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="3">
         <v>35</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>817</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>842</v>
+        <v>857</v>
+      </c>
+      <c r="J36" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="17"/>
-    </row>
-    <row r="37" spans="3:14">
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="3:14" ht="15">
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>846</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D37" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -5607,21 +5553,25 @@
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="D38" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>842</v>
+      </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -5631,21 +5581,19 @@
       <c r="C39" s="3">
         <v>38</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>285</v>
+      <c r="D39" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>852</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -5661,12 +5609,12 @@
         <v>830</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="3"/>
@@ -5688,12 +5636,14 @@
         <v>285</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5702,11 +5652,21 @@
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="3"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="C42" s="3">
+        <v>41</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -5716,11 +5676,21 @@
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="3:14">
-      <c r="C43" s="3"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="C43" s="3">
+        <v>42</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -6039,7 +6009,7 @@
     </row>
     <row r="66" spans="3:14">
       <c r="C66" s="3"/>
-      <c r="D66" s="14"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -6065,9 +6035,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="3:14">
+    <row r="68" spans="3:14" ht="15">
       <c r="C68" s="3"/>
-      <c r="D68" s="12"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -6096,10 +6066,10 @@
     <row r="70" spans="3:14">
       <c r="C70" s="3"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="5"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -6110,10 +6080,10 @@
     <row r="71" spans="3:14">
       <c r="C71" s="3"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="5"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="5"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -6127,7 +6097,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -6141,7 +6111,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -6208,7 +6178,7 @@
     <row r="78" spans="3:14">
       <c r="C78" s="3"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="3"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -6222,7 +6192,7 @@
     <row r="79" spans="3:14">
       <c r="C79" s="3"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -6305,7 +6275,7 @@
     </row>
     <row r="85" spans="3:14">
       <c r="C85" s="3"/>
-      <c r="D85" s="14"/>
+      <c r="D85" s="12"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -6331,9 +6301,9 @@
       <c r="M86" s="3"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="3:14">
+    <row r="87" spans="3:14" ht="15">
       <c r="C87" s="3"/>
-      <c r="D87" s="12"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -6362,10 +6332,10 @@
     <row r="89" spans="3:14">
       <c r="C89" s="3"/>
       <c r="D89" s="12"/>
-      <c r="E89" s="5"/>
+      <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="5"/>
+      <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -6376,7 +6346,7 @@
     <row r="90" spans="3:14">
       <c r="C90" s="3"/>
       <c r="D90" s="12"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -6393,7 +6363,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -6460,7 +6430,7 @@
     <row r="96" spans="3:14">
       <c r="C96" s="3"/>
       <c r="D96" s="12"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6474,7 +6444,7 @@
     <row r="97" spans="3:14">
       <c r="C97" s="3"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="3"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -6557,7 +6527,7 @@
     </row>
     <row r="103" spans="3:14">
       <c r="C103" s="3"/>
-      <c r="D103" s="14"/>
+      <c r="D103" s="12"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -6583,9 +6553,9 @@
       <c r="M104" s="3"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="3:14">
+    <row r="105" spans="3:14" ht="15">
       <c r="C105" s="3"/>
-      <c r="D105" s="12"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -6614,10 +6584,10 @@
     <row r="107" spans="3:14">
       <c r="C107" s="3"/>
       <c r="D107" s="12"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="5"/>
+      <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -6628,7 +6598,7 @@
     <row r="108" spans="3:14">
       <c r="C108" s="3"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -6645,7 +6615,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+      <c r="H109" s="5"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -6712,7 +6682,7 @@
     <row r="114" spans="3:14">
       <c r="C114" s="3"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="3"/>
+      <c r="E114" s="5"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -6726,7 +6696,7 @@
     <row r="115" spans="3:14">
       <c r="C115" s="3"/>
       <c r="D115" s="12"/>
-      <c r="E115" s="3"/>
+      <c r="E115" s="5"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -6809,8 +6779,8 @@
     </row>
     <row r="121" spans="3:14">
       <c r="C121" s="3"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="5"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6824,7 +6794,7 @@
     <row r="122" spans="3:14">
       <c r="C122" s="3"/>
       <c r="D122" s="12"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -6835,14 +6805,14 @@
       <c r="M122" s="3"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="3:14">
+    <row r="123" spans="3:14" ht="15">
       <c r="C123" s="3"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="5"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -6855,8 +6825,8 @@
       <c r="E124" s="5"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -6869,22 +6839,22 @@
       <c r="E125" s="5"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="3:14" ht="16.5">
+    <row r="126" spans="3:14">
       <c r="C126" s="3"/>
       <c r="D126" s="12"/>
       <c r="E126" s="5"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="3"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -6894,10 +6864,10 @@
     <row r="127" spans="3:14">
       <c r="C127" s="3"/>
       <c r="D127" s="12"/>
-      <c r="E127" s="3"/>
+      <c r="E127" s="5"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="5"/>
+      <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -6905,14 +6875,14 @@
       <c r="M127" s="3"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="3:14">
+    <row r="128" spans="3:14" ht="14.25">
       <c r="C128" s="3"/>
       <c r="D128" s="12"/>
       <c r="E128" s="5"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -6922,38 +6892,38 @@
     <row r="129" spans="3:14">
       <c r="C129" s="3"/>
       <c r="D129" s="12"/>
-      <c r="E129" s="5"/>
+      <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+      <c r="H129" s="5"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
-      <c r="N129" s="15"/>
-    </row>
-    <row r="130" spans="3:14" ht="16.5">
+      <c r="N129" s="17"/>
+    </row>
+    <row r="130" spans="3:14">
       <c r="C130" s="3"/>
       <c r="D130" s="12"/>
       <c r="E130" s="5"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="3"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
-      <c r="N130" s="15"/>
+      <c r="N130" s="17"/>
     </row>
     <row r="131" spans="3:14">
       <c r="C131" s="3"/>
       <c r="D131" s="12"/>
-      <c r="E131" s="3"/>
+      <c r="E131" s="5"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="5"/>
+      <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -6961,14 +6931,14 @@
       <c r="M131" s="3"/>
       <c r="N131" s="15"/>
     </row>
-    <row r="132" spans="3:14">
+    <row r="132" spans="3:14" ht="14.25">
       <c r="C132" s="3"/>
       <c r="D132" s="12"/>
       <c r="E132" s="5"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -6977,64 +6947,60 @@
     </row>
     <row r="133" spans="3:14">
       <c r="C133" s="3"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="15"/>
     </row>
     <row r="134" spans="3:14">
       <c r="C134" s="3"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="15"/>
+    </row>
+    <row r="135" spans="3:14">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:14">
+      <c r="C136" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N132">
-    <cfRule type="cellIs" dxfId="9" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N134">
+    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N125:N132">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N125:N132">
-    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N129:N131">
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33:N34">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E121:E132 E85:E95 E103:E113 E2:E77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G132:G134 G128:G130 G2:G126">
+      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F134">
+      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E123:E134 E2:E79 E105:E115 E87:E97">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D123 D3:D4 D6:D16 D22:D28 D36:D65 D18:D20 D30:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D125 D30:D36 D18:D20 D38:D67 D22:D28 D6:D16 D3:D4">
       <formula1>"C,F,T,;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G130:G132 G126:G128 G2:G124">
-      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F132">
-      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7050,9 +7016,9 @@
       <selection activeCell="CJ2" sqref="CJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88">
@@ -10975,7 +10941,7 @@
       <selection activeCell="AOA1" sqref="AOA1:AOA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1067">
       <c r="A1" t="s">
@@ -30050,10 +30016,10 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/NformTester/NformTester/Keywordscripts/600.40.30.90_UsersandGroupsDisableUsersOwnAccount.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.90_UsersandGroupsDisableUsersOwnAccount.xlsx
@@ -1265,7 +1265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7728" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7728" uniqueCount="860">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3872,10 +3872,6 @@
   </si>
   <si>
     <t xml:space="preserve">;clear all configurations </t>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4479,8 +4475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5484,7 +5480,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>860</v>
+        <v>831</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>800</v>
@@ -5510,7 +5506,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>860</v>
+        <v>831</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>800</v>
@@ -6999,7 +6995,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E123:E134 E2:E79 E105:E115 E87:E97">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D125 D30:D36 D18:D20 D38:D67 D22:D28 D6:D16 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D125 D3:D4 D18:D20 D38:D67 D22:D28 D6:D16 D30:D36">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
   </dataValidations>
